--- a/biology/Microbiologie/Dentacinetidae/Dentacinetidae.xlsx
+++ b/biology/Microbiologie/Dentacinetidae/Dentacinetidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Dentacinetidae sont une famille de Ciliés de la classe des Kinetofragminophora et de l’ordre des Suctorida[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Dentacinetidae sont une famille de Ciliés de la classe des Kinetofragminophora et de l’ordre des Suctorida.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Dentacineta, composé du préfixe dent-, « dent, denté », et du suffixe acineta, par allusion au genre Acineta Ehrenberg, 1834 (genre type de la famille des Acinetidae), littéralement « Acinète à contour (de l'embouchure) denté »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Dentacineta, composé du préfixe dent-, « dent, denté », et du suffixe acineta, par allusion au genre Acineta Ehrenberg, 1834 (genre type de la famille des Acinetidae), littéralement « Acinète à contour (de l'embouchure) denté ».
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Adrien Batisse (d) décrit ainsi le genre type et sa famille :
 Genre Dentacineta
-« campaniformes (c'est-à-dire en forme de cloche), section hexagonale, à cuirasse corticale pseudoloculaire soulevée en six côtes méridiennes convergeant basalement, achevées apicalement en angles saillants ; cinq à six tentacules inégaux étroitement groupés sur une surface apicale très saillante. Macronucleus ovale, médian. Jusqu'à trois micronucleus. Une vacuole pulsatile latéro-apicale. Style fibreux robuste, long, légèrement flexueux, cylindrique, peu dilaté à ses extrémités[1]. »
+« campaniformes (c'est-à-dire en forme de cloche), section hexagonale, à cuirasse corticale pseudoloculaire soulevée en six côtes méridiennes convergeant basalement, achevées apicalement en angles saillants ; cinq à six tentacules inégaux étroitement groupés sur une surface apicale très saillante. Macronucleus ovale, médian. Jusqu'à trois micronucleus. Une vacuole pulsatile latéro-apicale. Style fibreux robuste, long, légèrement flexueux, cylindrique, peu dilaté à ses extrémités. »
 Famille des Dentacinetidae
-« Suctoria Ophryodendrina à tropho-tomontes[note 1] pédonculés, campaniformes ou pyramidaux, cortex latéro-basal épais, formant une pseudo-lorica méridiennement costulée, cernant une aire apicale souple. Tentacules suceurs à cortex fortement plissé en rétraction, groupés en unique faisceau centro-apical. Macronucleus ovale ou sphérique, médian ou subapical. Tomites[note 2] vermiformes déprimés, à long cou terminé par une raquette losangique adhésive. Macronucleus ovale[1]. »
+« Suctoria Ophryodendrina à tropho-tomontes[note 1] pédonculés, campaniformes ou pyramidaux, cortex latéro-basal épais, formant une pseudo-lorica méridiennement costulée, cernant une aire apicale souple. Tentacules suceurs à cortex fortement plissé en rétraction, groupés en unique faisceau centro-apical. Macronucleus ovale ou sphérique, médian ou subapical. Tomites[note 2] vermiformes déprimés, à long cou terminé par une raquette losangique adhésive. Macronucleus ovale. »
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dentacineta n'a été décrit qu'en mer Méditerranée (Sète et dans la Manche (Roscoff) vivant en épizoïque sur les antennules du copépode harpacticoïde (en) sabulicole marin du genre Ameira[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dentacineta n'a été décrit qu'en mer Méditerranée (Sète et dans la Manche (Roscoff) vivant en épizoïque sur les antennules du copépode harpacticoïde (en) sabulicole marin du genre Ameira.
 </t>
         </is>
       </c>
@@ -608,13 +626,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (11 mai 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (11 mai 2023) :
 Dentacineta Yankovskii, 1978
 Espèce type : Dentacineta campanuliformis (Collin, 1909) Jankowski, 1978
 Synonyme : Acinetopsis campanuliformis Collin, 1909
-Selon Batisse (1992)[1] :
+Selon Batisse (1992) :
 Dentacineta Jankowski, 1978
 Espèce type : Dentacineta campanuliformis Collin, 1909
 Dentacinetides Batisse, 1992
@@ -646,9 +666,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Dentacinetidae Batisse, 1992 [3],[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Dentacinetidae Batisse, 1992 ,.
 </t>
         </is>
       </c>
@@ -677,7 +699,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>A. Batisse, « Acinétiens nouveaux ou mal connus des côtes méditerranéennes françaises. 3. Dentacinetides collini gen. n., sr n. (Suctoria, Ophryodendrina) », Vie et Milieu, France, vol. 42, nos 3-4,‎ 1992, p. 295-306 (ISSN 0240-8759, lire en ligne).</t>
         </is>
